--- a/biology/Biochimie/Bilirubine/Bilirubine.xlsx
+++ b/biology/Biochimie/Bilirubine/Bilirubine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bilirubine est un pigment jaune, produit de la dégradation de l'hémoglobine, lors de la destruction des globules rouges,  mais aussi d'autres hémoprotéines, comme les cytochromes ou les catalases. Son catabolisme est assuré par le foie.
@@ -513,7 +525,9 @@
           <t>Origine et cinétique de la bilirubine chez l'humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les globules rouges ont une durée de vie d'environ 120 jours. Ils sont ensuite détruits (c'est l'hémolyse).
 Cette destruction s'effectue en plusieurs étapes :
@@ -552,7 +566,9 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une forte hausse de la bilirubinémie peut être causée par :
 Une hémolyse ou une augmentation de la dégradation des globules rouges, donnant une augmentation de la bilirubine libre et conjuguée.
@@ -598,14 +614,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ictère nucléaire du nouveau-né
-Une forte concentration de bilirubine dans le sang (hyperbilirubinémie) chez le nourrisson, souvent secondaire à une hémolyse importante due à une incompatibilité fœto-maternelle peut entraîner son accumulation dans certaines régions du cerveau : c'est l'ictère nucléaire.
+          <t>Ictère nucléaire du nouveau-né</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une forte concentration de bilirubine dans le sang (hyperbilirubinémie) chez le nourrisson, souvent secondaire à une hémolyse importante due à une incompatibilité fœto-maternelle peut entraîner son accumulation dans certaines régions du cerveau : c'est l'ictère nucléaire.
 Il se caractérise par une atteinte des noyaux gris centraux du cerveau — ou ganglions de la base — et des détériorations irréversibles de ces régions, soit plus concrètement par des convulsions, des troubles des réflexes et des mouvements des yeux.
 La neurotoxicité de la bilirubine chez le nouveau-né n'est pas due à une activité de la molécule qui serait différente de chez l'adulte, mais au manque de protection du nourrisson.
 La barrière hémato-encéphalique n'a pas encore fini de se développer, ce qui permet à la bilirubine de diffuser librement à travers les capillaires sanguins du cerveau. De plus, les nouveau-nés ne possèdent pas encore les bactéries intestinales qui facilitent la décomposition de la bilirubine dans les fèces (ce qui explique en grande partie pourquoi les fèces des nouveau-nés sont plus pâles que celles des adultes).
 La bilirubine conjuguée est transformée en sa forme non conjuguée par l'enzyme b-glucoronidase, tandis qu'une grande partie est réabsorbée par la circulation entérohépatique (circulation de la bile entre le foie et l'intestin grêle).
-Ictère
-Un ictère, ou jaunisse, correspond à la coloration jaune des téguments (peau et muqueuses : on parle d'ictère cutanéo-muqueux) due à l'accumulation de bilirubine, qui peut être libre ou conjuguée à l'acide glucuronique c'est pourquoi on distingue deux types d'ictères :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bilirubine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilirubine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maladies associées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ictère</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ictère, ou jaunisse, correspond à la coloration jaune des téguments (peau et muqueuses : on parle d'ictère cutanéo-muqueux) due à l'accumulation de bilirubine, qui peut être libre ou conjuguée à l'acide glucuronique c'est pourquoi on distingue deux types d'ictères :
 Ictère à bilirubine libre
 Ictère à bilirubine conjuguée
 La jaunisse est repérable dans la sclère (le blanc des yeux) à partir de 30 à 50 µmol·l-1 et sur la peau à des niveaux plus élevés d'hyperbilirubinémie.
@@ -613,38 +669,74 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bilirubine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bilirubine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biochimie et analyse du sang</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On parle de « sérum ictérique » et d' « ictère cutanéo-muqueux» quand le taux sérique de bilirubine totale (taux de bilirubine dans le sérum sanguin) est élevé[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On parle de « sérum ictérique » et d' « ictère cutanéo-muqueux» quand le taux sérique de bilirubine totale (taux de bilirubine dans le sérum sanguin) est élevé.
 Plus précisément, on définit deux états :
 - « Sub-ictère » à partir de 30 μmol/L ;
-- « Ictère franc » au-delà de 50 μmol/L.
-Tests sanguins
-Pour mieux comprendre les causes d'une augmentation de la bilirubinémie, on procède à d'autres tests hépatiques (particulièrement des enzymes ALT, AST, GGT et phosphatase alcaline), à un frottis sanguin (hémolyse, etc), ou de rechercher des traces d'une hépatite infectieuse (c'est-à-dire hépatite A, B (pouvant être associée au virus D, C, E ou autres virus hépatotropes comme l'EBV).
+- « Ictère franc » au-delà de 50 μmol/L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bilirubine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilirubine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biochimie et analyse du sang</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tests sanguins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour mieux comprendre les causes d'une augmentation de la bilirubinémie, on procède à d'autres tests hépatiques (particulièrement des enzymes ALT, AST, GGT et phosphatase alcaline), à un frottis sanguin (hémolyse, etc), ou de rechercher des traces d'une hépatite infectieuse (c'est-à-dire hépatite A, B (pouvant être associée au virus D, C, E ou autres virus hépatotropes comme l'EBV).
 La bilirubine est un produit exogène (déchet d'une dégradation), et le corps ne contrôle pas sa concentration, qui reflète donc le rapport entre production et excrétion.
 C'est pourquoi il n'existe pas de concentration « normale » de bilirubine, mais seulement une valeur supérieure normale. Elle est inférieure à 17 µmol/L en ce qui concerne la bilirubine totale.
 Conservation des échantillons : La bilirubine est altérée par la lumière ; Aussi les échantillons de sang (surtout les tubes de sérum) doivent être protégés de son exposition.
@@ -652,34 +744,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bilirubine</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bilirubine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bienfaits</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une quantité modérée de bilirubine peut être bénéfique[4] à l'organisme : il semble que cela puisse protéger les tissus contre l'effet oxydatif des radicaux libres et d'autres oxydants[5].
-Les patients porteurs du syndrome de Gilbert semblent avoir moins de maladies cardiovasculaires, ce qui pourrait être expliqué par les propriétés anti-oxydantes de la bilirubine[6]. De même, un taux bas de bilirubine semble être corrélé à un risque plus important de décès ou de survenue de maladies cardio-vasculaires[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une quantité modérée de bilirubine peut être bénéfique à l'organisme : il semble que cela puisse protéger les tissus contre l'effet oxydatif des radicaux libres et d'autres oxydants.
+Les patients porteurs du syndrome de Gilbert semblent avoir moins de maladies cardiovasculaires, ce qui pourrait être expliqué par les propriétés anti-oxydantes de la bilirubine. De même, un taux bas de bilirubine semble être corrélé à un risque plus important de décès ou de survenue de maladies cardio-vasculaires.
 </t>
         </is>
       </c>
